--- a/pago Junio.xlsx
+++ b/pago Junio.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="195" windowWidth="20115" windowHeight="7875" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="195" windowWidth="20115" windowHeight="7875" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Febrero 28" sheetId="5" r:id="rId5"/>
     <sheet name="Marzo 15" sheetId="6" r:id="rId6"/>
     <sheet name="Junio 15" sheetId="7" r:id="rId7"/>
+    <sheet name="Hoja3" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="153">
   <si>
     <t>AHORRO</t>
   </si>
@@ -467,6 +468,18 @@
   </si>
   <si>
     <t>Octubre</t>
+  </si>
+  <si>
+    <t>apto</t>
+  </si>
+  <si>
+    <t>CREDITO</t>
+  </si>
+  <si>
+    <t>QUINCENA</t>
+  </si>
+  <si>
+    <t>QUINCENA 30</t>
   </si>
 </sst>
 </file>
@@ -474,8 +487,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -625,46 +638,48 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="5" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="5" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -2815,17 +2830,17 @@
         <f>100000+50000+50000+50000</f>
         <v>250000</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
@@ -3393,8 +3408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F5" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3405,7 +3420,7 @@
     <col min="11" max="11" width="15.42578125" customWidth="1"/>
     <col min="12" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -3413,13 +3428,16 @@
         <v>7</v>
       </c>
       <c r="B1" s="1">
-        <v>350000</v>
+        <v>357000</v>
       </c>
       <c r="G1" t="s">
         <v>118</v>
       </c>
       <c r="I1" t="s">
         <v>128</v>
+      </c>
+      <c r="M1" s="20">
+        <v>42156</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -3439,6 +3457,9 @@
       <c r="I2">
         <v>5</v>
       </c>
+      <c r="M2" s="1">
+        <v>2300000</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3453,6 +3474,9 @@
       <c r="H3" s="1">
         <v>50000</v>
       </c>
+      <c r="M3" s="1">
+        <v>2500000</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -3467,6 +3491,9 @@
       <c r="H4" s="1">
         <v>75000</v>
       </c>
+      <c r="M4" s="1">
+        <v>500000</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3489,6 +3516,9 @@
       <c r="H5" s="1">
         <v>50000</v>
       </c>
+      <c r="M5" s="1">
+        <v>550000</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3506,6 +3536,10 @@
       <c r="I6">
         <v>15</v>
       </c>
+      <c r="M6" s="2">
+        <f>SUM(M2:M5)</f>
+        <v>5850000</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3520,6 +3554,10 @@
       <c r="H7" s="1">
         <v>80000</v>
       </c>
+      <c r="M7" s="23">
+        <v>3847457</v>
+      </c>
+      <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3557,7 +3595,7 @@
         <v>37</v>
       </c>
       <c r="B10" s="23">
-        <v>200000</v>
+        <v>1270000</v>
       </c>
       <c r="D10" s="1">
         <v>2250000</v>
@@ -3580,7 +3618,7 @@
         <v>530000</v>
       </c>
       <c r="D11" s="1">
-        <v>2000000</v>
+        <v>2500000</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
@@ -3600,7 +3638,7 @@
       <c r="B12" s="23">
         <v>380000</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="31">
         <v>500000</v>
       </c>
       <c r="E12" t="s">
@@ -3646,7 +3684,7 @@
       <c r="A15" s="22"/>
       <c r="B15" s="23">
         <f>SUM(B1:B14)</f>
-        <v>2770457</v>
+        <v>3847457</v>
       </c>
       <c r="H15" s="1">
         <v>260000</v>
@@ -3663,7 +3701,7 @@
       <c r="J16">
         <v>1</v>
       </c>
-      <c r="K16" s="32"/>
+      <c r="K16" s="31"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s">
         <v>145</v>
@@ -3673,9 +3711,9 @@
       <c r="G17" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="32"/>
+      <c r="K17" s="31"/>
       <c r="N17" s="1">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="O17" t="s">
         <v>146</v>
@@ -3698,11 +3736,14 @@
       <c r="B19" s="23">
         <v>42000</v>
       </c>
-      <c r="K19" s="32">
-        <v>1200000</v>
+      <c r="J19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="31">
+        <v>1262000</v>
       </c>
       <c r="N19" s="1">
-        <v>1000000</v>
+        <v>1262000</v>
       </c>
       <c r="O19" t="s">
         <v>37</v>
@@ -3721,16 +3762,18 @@
       <c r="H20" s="1">
         <v>300000</v>
       </c>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="32">
+      <c r="I20" s="32"/>
+      <c r="J20" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="31">
         <v>4500000</v>
       </c>
-      <c r="L20" s="32">
+      <c r="L20" s="31">
         <f>N20+B11</f>
         <v>1230000</v>
       </c>
-      <c r="M20" s="32">
+      <c r="M20" s="31">
         <f>K20-L20</f>
         <v>3270000</v>
       </c>
@@ -3739,35 +3782,37 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="33">
         <v>570000</v>
       </c>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="32">
+      <c r="I21" s="32"/>
+      <c r="J21" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="K21" s="31">
         <f>H22*2</f>
         <v>3300000</v>
       </c>
-      <c r="M21" s="32"/>
+      <c r="M21" s="31"/>
       <c r="N21" s="2">
         <f>SUM(N16:N20)</f>
-        <v>2000000</v>
+        <v>1962000</v>
       </c>
       <c r="O21" s="1">
         <v>2000000</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="33">
         <v>1650000</v>
       </c>
-      <c r="K22" s="32"/>
+      <c r="K22" s="31"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -3828,7 +3873,7 @@
       <c r="K27" s="1">
         <v>6700000</v>
       </c>
-      <c r="M27" s="32"/>
+      <c r="M27" s="31"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
@@ -3844,4 +3889,193 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="1">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>50000</v>
+      </c>
+      <c r="F6">
+        <f>1600*8*4</f>
+        <v>51200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="1">
+        <v>80000</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="1">
+        <v>47700</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="1">
+        <f>170000+100000+30000+100000</f>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="1">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="3">
+        <f>SUM(B2:B10)</f>
+        <v>2752700</v>
+      </c>
+      <c r="C11" s="2">
+        <f>B11-2250000</f>
+        <v>502700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="1">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="1">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="1">
+        <f>70000+100000+100000</f>
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="1">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="1">
+        <f>20000+50000</f>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="36">
+        <f>SUM(B12:B17)</f>
+        <v>2194000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <f>B18+B11</f>
+        <v>4946700</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>